--- a/BI_SOCCER/Database/Correção Resultados.xlsx
+++ b/BI_SOCCER/Database/Correção Resultados.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinic\OneDrive\Documentos\BI SOCCER DEFF\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinic\OneDrive\Documentos\GitHub\Deff\BI_SOCCER\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06987704-212E-40E4-8531-48BE708278B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443E8CE2-1A44-44E7-97ED-93EB4ADF9462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5185125A-93B0-4C10-8619-308ADEF2BDC4}"/>
   </bookViews>
@@ -34,83 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
-  <si>
-    <t>Hora</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
   <si>
     <t>League</t>
   </si>
   <si>
-    <t>Goleada</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Placar</t>
-  </si>
-  <si>
-    <t>10:00:00</t>
-  </si>
-  <si>
-    <t>Spanish La Liga</t>
-  </si>
-  <si>
-    <t>Mallorca</t>
-  </si>
-  <si>
-    <t>19,5</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>160,0</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1x0</t>
-  </si>
-  <si>
-    <t>11:00:00</t>
-  </si>
-  <si>
-    <t>Italian Serie A</t>
-  </si>
-  <si>
-    <t>AC Monza</t>
-  </si>
-  <si>
-    <t>16,0</t>
-  </si>
-  <si>
-    <t>48,0</t>
-  </si>
-  <si>
-    <t>Cagliari</t>
-  </si>
-  <si>
-    <t>12:00:00</t>
-  </si>
-  <si>
-    <t>English Premier League</t>
-  </si>
-  <si>
-    <t>Luton</t>
-  </si>
-  <si>
-    <t>19,0</t>
-  </si>
-  <si>
-    <t>Nottm Forest</t>
-  </si>
-  <si>
-    <t>1x1</t>
-  </si>
-  <si>
     <t>Goals_H</t>
   </si>
   <si>
@@ -124,16 +52,154 @@
   </si>
   <si>
     <t>Away</t>
+  </si>
+  <si>
+    <t>San Lorenzo</t>
+  </si>
+  <si>
+    <t>Godoy Cruz</t>
+  </si>
+  <si>
+    <t>Lanus</t>
+  </si>
+  <si>
+    <t>Union Santa Fe</t>
+  </si>
+  <si>
+    <t>Argentinian Copa de la Liga Profesional</t>
+  </si>
+  <si>
+    <t>Argentinian Primera B Nacional</t>
+  </si>
+  <si>
+    <t>CA San Miguel</t>
+  </si>
+  <si>
+    <t>CA Guemes</t>
+  </si>
+  <si>
+    <t>Deportivo Madryn</t>
+  </si>
+  <si>
+    <t>Estudiantes de Caseros</t>
+  </si>
+  <si>
+    <t>Chaco For Ever</t>
+  </si>
+  <si>
+    <t>Ferro Carril Oeste</t>
+  </si>
+  <si>
+    <t>Atletico Rafaela</t>
+  </si>
+  <si>
+    <t>Chacarita</t>
+  </si>
+  <si>
+    <t>Aldosivi</t>
+  </si>
+  <si>
+    <t>Defensores Unidos</t>
+  </si>
+  <si>
+    <t>Gimnasia Jujuy</t>
+  </si>
+  <si>
+    <t>Estudiantes Rio Cuarto</t>
+  </si>
+  <si>
+    <t>San Telmo</t>
+  </si>
+  <si>
+    <t>Colon</t>
+  </si>
+  <si>
+    <t>Almirante Brown</t>
+  </si>
+  <si>
+    <t>CD Maipu</t>
+  </si>
+  <si>
+    <t>Quilmes</t>
+  </si>
+  <si>
+    <t>CA Atlanta</t>
+  </si>
+  <si>
+    <t>Talleres (RE)</t>
+  </si>
+  <si>
+    <t>All Boys</t>
+  </si>
+  <si>
+    <t>Alvarado</t>
+  </si>
+  <si>
+    <t>Brown de Adrogue</t>
+  </si>
+  <si>
+    <t>San Martin De San Juan</t>
+  </si>
+  <si>
+    <t>San Martin de Tucuman</t>
+  </si>
+  <si>
+    <t>Tristan Suarez</t>
+  </si>
+  <si>
+    <t>Almagro BA</t>
+  </si>
+  <si>
+    <t>Arsenal de Sarandi</t>
+  </si>
+  <si>
+    <t>Atletico Mitre</t>
+  </si>
+  <si>
+    <t>CA Temperley</t>
+  </si>
+  <si>
+    <t>Club Atletico Racing de Cordoba</t>
+  </si>
+  <si>
+    <t>Club Gimnasia y Tiro</t>
+  </si>
+  <si>
+    <t>Defensores de Belgrano</t>
+  </si>
+  <si>
+    <t>Gimnasia Mendoza</t>
+  </si>
+  <si>
+    <t>Nueva Chicago</t>
+  </si>
+  <si>
+    <t>Patronato</t>
+  </si>
+  <si>
+    <t>Agropecuario</t>
+  </si>
+  <si>
+    <t>Deportivo Moron</t>
+  </si>
+  <si>
+    <t>Guillermo Brown</t>
+  </si>
+  <si>
+    <t>Vasco Da Gama</t>
+  </si>
+  <si>
+    <t>EC Vitoria Salvador</t>
+  </si>
+  <si>
+    <t>Brazilian Serie A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy"/>
-  </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,62 +207,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF363636"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF363636"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5F5F5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC0C0C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -209,16 +226,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFDCDCDC"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FFDCDCDC"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FFDCDCDC"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFDCDCDC"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -226,32 +243,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,165 +561,479 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F6E2CE-7794-4109-9CCA-64722F63F743}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>45371</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>45382</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>45521</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>45521</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>45521</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>45521</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>45521</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>45521</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>45522</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>45522</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>45522</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>45522</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>45522</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>45522</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>45522</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>45522</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>45522</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>45522</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="D19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="1">
+        <v>3</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>45523</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="D20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>45523</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>45523</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>45424</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="1">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>45367</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="5">
-        <v>1</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>45367</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>45367</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="5">
-        <v>1</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="5">
-        <v>1</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>24</v>
+      <c r="F23" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
